--- a/exceltotxt/Bin/data/test.xlsx
+++ b/exceltotxt/Bin/data/test.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/exceltotxt/Bin/data/test.xlsx
+++ b/exceltotxt/Bin/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,8 +405,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -452,8 +460,8 @@
         <v>7</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -471,12 +479,73 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
